--- a/input_files/ois_2022_09_30.xlsx
+++ b/input_files/ois_2022_09_30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t004672\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F071F43-E89D-4A03-96F3-517282E39FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE41CCB-EBAE-4D83-A7B4-F5EE2C60DD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11370" yWindow="-15930" windowWidth="26610" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="2" r:id="rId1"/>
@@ -31,12 +31,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>months</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>quotes</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>4M</t>
+  </si>
+  <si>
+    <t>5M</t>
+  </si>
+  <si>
+    <t>6M</t>
+  </si>
+  <si>
+    <t>7M</t>
+  </si>
+  <si>
+    <t>8M</t>
+  </si>
+  <si>
+    <t>9M</t>
+  </si>
+  <si>
+    <t>10M</t>
+  </si>
+  <si>
+    <t>11M</t>
+  </si>
+  <si>
+    <t>12M</t>
+  </si>
+  <si>
+    <t>18M</t>
+  </si>
+  <si>
+    <t>24M</t>
+  </si>
+  <si>
+    <t>36M</t>
+  </si>
+  <si>
+    <t>48M</t>
+  </si>
+  <si>
+    <t>60M</t>
+  </si>
+  <si>
+    <t>72M</t>
+  </si>
+  <si>
+    <t>84M</t>
+  </si>
+  <si>
+    <t>96M</t>
+  </si>
+  <si>
+    <t>108M</t>
+  </si>
+  <si>
+    <t>120M</t>
+  </si>
+  <si>
+    <t>132M</t>
+  </si>
+  <si>
+    <t>144M</t>
+  </si>
+  <si>
+    <t>180M</t>
+  </si>
+  <si>
+    <t>240M</t>
+  </si>
+  <si>
+    <t>300M</t>
+  </si>
+  <si>
+    <t>360M</t>
+  </si>
+  <si>
+    <t>480M</t>
+  </si>
+  <si>
+    <t>600M</t>
+  </si>
+  <si>
+    <t>maturities</t>
   </si>
 </sst>
 </file>
@@ -601,9 +691,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -641,9 +731,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -676,26 +766,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -728,26 +801,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -924,12 +980,13 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="17" bestFit="1" customWidth="1"/>
@@ -938,14 +995,14 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -955,7 +1012,7 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -965,7 +1022,7 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -975,7 +1032,7 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -985,7 +1042,7 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -995,7 +1052,7 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -1005,7 +1062,7 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -1015,7 +1072,7 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -1025,7 +1082,7 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -1035,7 +1092,7 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -1045,7 +1102,7 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1">
@@ -1055,7 +1112,7 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1">
@@ -1065,8 +1122,8 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>18</v>
+      <c r="A14" t="s">
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>2.4474999904632599</v>
@@ -1075,8 +1132,8 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>24</v>
+      <c r="A15" t="s">
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>2.5315001010894749</v>
@@ -1085,8 +1142,8 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>36</v>
+      <c r="A16" t="s">
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>2.5805000066757202</v>
@@ -1095,8 +1152,8 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>48</v>
+      <c r="A17" t="s">
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>2.6159999370574951</v>
@@ -1105,8 +1162,8 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>60</v>
+      <c r="A18" t="s">
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>2.6560000181198147</v>
@@ -1115,8 +1172,8 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>72</v>
+      <c r="A19" t="s">
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>2.6865005493164054</v>
@@ -1125,8 +1182,8 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>84</v>
+      <c r="A20" t="s">
+        <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>2.7113499641418448</v>
@@ -1135,8 +1192,8 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>96</v>
+      <c r="A21" t="s">
+        <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>2.74049997329712</v>
@@ -1145,8 +1202,8 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>108</v>
+      <c r="A22" t="s">
+        <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>2.7692500352859497</v>
@@ -1155,8 +1212,8 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>120</v>
+      <c r="A23" t="s">
+        <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>2.79899990558624</v>
@@ -1165,8 +1222,8 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>132</v>
+      <c r="A24" t="s">
+        <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>2.8257493972778347</v>
@@ -1175,8 +1232,8 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>144</v>
+      <c r="A25" t="s">
+        <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>2.8459999561309801</v>
@@ -1185,8 +1242,8 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>180</v>
+      <c r="A26" t="s">
+        <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>2.8585000038146999</v>
@@ -1195,8 +1252,8 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>240</v>
+      <c r="A27" t="s">
+        <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>2.717000007629395</v>
@@ -1205,8 +1262,8 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>300</v>
+      <c r="A28" t="s">
+        <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>2.5210005044937098</v>
@@ -1215,8 +1272,8 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>360</v>
+      <c r="A29" t="s">
+        <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>2.3579995632171649</v>
@@ -1225,8 +1282,8 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>480</v>
+      <c r="A30" t="s">
+        <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>2.1750999689102199</v>
@@ -1235,8 +1292,8 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>600</v>
+      <c r="A31" t="s">
+        <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>2.0460000038146999</v>
@@ -1250,18 +1307,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1462,14 +1519,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{655E2E77-25B6-419E-8837-B343B6ADED36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B66CD126-1D13-4C69-A181-AC65B501BC38}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1482,6 +1531,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{655E2E77-25B6-419E-8837-B343B6ADED36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
